--- a/onogam/dataset.xlsx
+++ b/onogam/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>評価</t>
     <rPh sb="0" eb="2">
@@ -26,6 +26,20 @@
   </si>
   <si>
     <t>データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果データ</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -372,63 +386,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -436,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -444,7 +494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -452,7 +502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -460,7 +510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -468,7 +518,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0</v>
       </c>
@@ -476,7 +526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0</v>
       </c>
@@ -484,7 +534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0</v>
       </c>
@@ -492,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1</v>
       </c>
@@ -500,7 +550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0</v>
       </c>
